--- a/biology/Botanique/Pterocarya/Pterocarya.xlsx
+++ b/biology/Botanique/Pterocarya/Pterocarya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterocarya (du grec pteron, "aile" + karyon, "noix") est un genre d'arbre de la famille des Juglandaceae.
 Il comprend six espèces d'arbres à feuillage caduc. Elles poussent dans les forêts tempérées et au bord des rivières en Asie orientale, à l'exception du ptérocaryer du Caucase présent dans le Caucase.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des grands arbres apparentés aux Noyers et aux Caryers qui offrent une croissance rapide et un port attrayant plus ou moins étalé. Ils peuvent mesurer jusqu'à 40 mètres de haut.
 Les feuilles imparipennées sont grandes, alternes, plus ou moins oblongues, composées de 5 à 27 folioles suivant les espèces, prenant une belle couleur jaune doré en automne.
@@ -546,7 +560,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pterocarya fraxinifolia (Poir.) Spach - Ptérocaryer du Caucase
 Pterocarya hupehensis Skan
